--- a/genshin/430304192046212601_2020-09-02_14-00-02.xlsx
+++ b/genshin/430304192046212601_2020-09-02_14-00-02.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>3446191651</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2020-09-03 23:13:16</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44077.9675462963</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -602,10 +616,8 @@
           <t>3450006053</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2020-09-03 15:13:44</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44077.63453703704</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -669,10 +681,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2020-09-03 01:43:41</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44077.07200231482</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -740,10 +750,8 @@
           <t>3447946197</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2020-09-03 01:30:48</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44077.06305555555</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -803,10 +811,8 @@
           <t>3447946197</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2020-09-02 22:36:30</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44076.94201388889</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -882,10 +888,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2020-09-02 22:29:14</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44076.93696759259</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -957,10 +961,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2020-09-02 18:59:43</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44076.79146990741</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -1032,10 +1034,8 @@
           <t>3446128389</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2020-09-02 18:20:46</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44076.7644212963</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -1099,10 +1099,8 @@
           <t>3446637082</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2020-09-02 17:15:18</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44076.71895833333</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1178,10 +1176,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2020-09-02 17:15:02</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44076.71877314815</v>
       </c>
       <c r="I11" t="n">
         <v>2</v>
@@ -1257,10 +1253,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2020-09-02 17:10:58</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44076.71594907407</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1324,10 +1318,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2020-09-02 17:01:20</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44076.70925925926</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1403,10 +1395,8 @@
           <t>3446570580</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:52:39</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44076.70322916667</v>
       </c>
       <c r="I14" t="n">
         <v>4</v>
@@ -1470,10 +1460,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:38:54</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44076.69368055555</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1541,10 +1529,8 @@
           <t>3446490849</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:24:22</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44076.68358796297</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1616,10 +1602,8 @@
           <t>3446464917</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:17:53</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44076.67908564815</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1695,10 +1679,8 @@
           <t>3446191651</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2020-09-02 15:47:23</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44076.65790509259</v>
       </c>
       <c r="I18" t="n">
         <v>9</v>
@@ -1766,10 +1748,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2020-09-02 15:03:41</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44076.62755787037</v>
       </c>
       <c r="I19" t="n">
         <v>6</v>
@@ -1837,10 +1817,8 @@
           <t>3446271018</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2020-09-02 15:00:04</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44076.6250462963</v>
       </c>
       <c r="I20" t="n">
         <v>5</v>
@@ -1908,10 +1886,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:51:55</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44076.61938657407</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1979,10 +1955,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:50:39</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44076.61850694445</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2058,10 +2032,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:50:10</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44076.61817129629</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2137,10 +2109,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:41:39</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44076.61225694444</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2216,10 +2186,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:32:53</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44076.60616898148</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2291,10 +2259,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:30:08</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44076.60425925926</v>
       </c>
       <c r="I26" t="n">
         <v>6</v>
@@ -2358,10 +2324,8 @@
           <t>3446191651</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:28:59</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44076.60346064815</v>
       </c>
       <c r="I27" t="n">
         <v>7</v>
@@ -2433,10 +2397,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:23:14</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44076.59946759259</v>
       </c>
       <c r="I28" t="n">
         <v>1</v>
@@ -2500,10 +2462,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:15:22</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44076.59400462963</v>
       </c>
       <c r="I29" t="n">
         <v>97</v>
@@ -2563,10 +2523,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:11:45</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44076.59149305556</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2634,10 +2592,8 @@
           <t>3446142198</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:11:38</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44076.59141203704</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2705,10 +2661,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:09:54</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44076.59020833333</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2781,10 +2735,8 @@
           <t>3446140573</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:09:47</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44076.59012731481</v>
       </c>
       <c r="I33" t="n">
         <v>6</v>
@@ -2848,10 +2800,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:09:09</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44076.5896875</v>
       </c>
       <c r="I34" t="n">
         <v>9</v>
@@ -2930,10 +2880,8 @@
           <t>3446128389</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:09:04</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44076.58962962963</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3001,10 +2949,8 @@
           <t>3446128389</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:07:18</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44076.58840277778</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3068,10 +3014,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:06:03</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44076.58753472222</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3135,10 +3079,8 @@
           <t>3446127223</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:05:58</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44076.58747685186</v>
       </c>
       <c r="I38" t="n">
         <v>1</v>
@@ -3206,10 +3148,8 @@
           <t>3446130252</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:04:31</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44076.58646990741</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3273,10 +3213,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:04:06</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44076.58618055555</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3352,10 +3290,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:03:56</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44076.58606481482</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3423,10 +3359,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:03:04</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44076.58546296296</v>
       </c>
       <c r="I42" t="n">
         <v>54</v>
@@ -3494,10 +3428,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:03:03</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44076.58545138889</v>
       </c>
       <c r="I43" t="n">
         <v>1</v>
@@ -3565,10 +3497,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:02:22</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44076.58497685185</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3644,10 +3574,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:01:47</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44076.58457175926</v>
       </c>
       <c r="I45" t="n">
         <v>58</v>
@@ -3711,10 +3639,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:01:41</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44076.58450231481</v>
       </c>
       <c r="I46" t="n">
         <v>2</v>
@@ -3784,10 +3710,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:01:27</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44076.58434027778</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3851,10 +3775,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:01:05</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44076.58408564814</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3926,10 +3848,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:01:02</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44076.58405092593</v>
       </c>
       <c r="I49" t="n">
         <v>1</v>
@@ -3993,10 +3913,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:00:59</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44076.58401620371</v>
       </c>
       <c r="I50" t="n">
         <v>2</v>
@@ -4060,10 +3978,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:00:58</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44076.58400462963</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
